--- a/medicine/Soins infirmiers et profession infirmière/Voie_veineuse_périphérique/Voie_veineuse_périphérique.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Voie_veineuse_périphérique/Voie_veineuse_périphérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Voie_veineuse_p%C3%A9riph%C3%A9rique</t>
+          <t>Voie_veineuse_périphérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie veineuse périphérique (VVP, selon la liste des abréviations en médecine) est un dispositif médical permettant la mise en place d'un cathéter au niveau d'une veine périphérique (membre supérieur, jugulaire, rarement membre inférieur) afin de perfuser des liquides dans la circulation sanguine générale par voie parentérale (médicaments intraveineux ou encore solutés d'hydratation ou de correction de la volémie notamment).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Voie_veineuse_p%C3%A9riph%C3%A9rique</t>
+          <t>Voie_veineuse_périphérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs types de cathéter pour voie veineuse périphérique sont disponibles et sont répertoriés selon une norme internationale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Voie_veineuse_p%C3%A9riph%C3%A9rique</t>
+          <t>Voie_veineuse_périphérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,51 @@
           <t>Complication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une complication, le plus souvent immédiate, est la sortie du cathéter en dehors de la veine avec perfusion du liquide directement dans le tissu avoisinant. Elle peut être sans grande conséquence (autre que la nécessité de repiquer), se manifester par un simple œdème localisé ou par une douleur proche du point de ponction. Certains médicaments perfusés sont cependant irritants, pouvant causer jusqu'à une nécrose des tissus, ainsi une voie veineuse centrale sera certainement envisagé pour diminuer ce risque.
-Il s'agit essentiellement d'une intolérance locale (veinite) pouvant aller jusqu'à l'occlusion de la veine par la formation d'un caillot (thrombose veineuse superficielle) et pouvant être accompagné de signes inflammatoires (tuméfaction, douleur, rougeur). Les veinites sont plus fréquentes lors du passage de certains médicaments et si la voie d'abord est la même depuis plus de trois jours[1], le risque augmentant avec cette durée[2].
-Il peut survenir également une infection locale ou générale. La proportion d'accidents de ce type reste faible, de l'ordre de quelques cas pour 1000[3]. 
+Il s'agit essentiellement d'une intolérance locale (veinite) pouvant aller jusqu'à l'occlusion de la veine par la formation d'un caillot (thrombose veineuse superficielle) et pouvant être accompagné de signes inflammatoires (tuméfaction, douleur, rougeur). Les veinites sont plus fréquentes lors du passage de certains médicaments et si la voie d'abord est la même depuis plus de trois jours, le risque augmentant avec cette durée.
+Il peut survenir également une infection locale ou générale. La proportion d'accidents de ce type reste faible, de l'ordre de quelques cas pour 1000. 
 Une injection d'air dans le système par mégarde pourrait conduire à une éventuelle embolie gazeuse.  
-Prévention
-Plusieurs recommandations (publications faite par un panel d'experts nationaux ou internationaux) préconisent de changer systématiquement le cathéter tous les 2 à 4 jours[4],[5]. Cette attitude n'est cependant pas unanime et, dans certaines conditions, le changement "à la demande" et non pas systématique, ne provoque pas plus de complications[6],[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Voie_veineuse_périphérique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_veineuse_p%C3%A9riph%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Complication</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs recommandations (publications faite par un panel d'experts nationaux ou internationaux) préconisent de changer systématiquement le cathéter tous les 2 à 4 jours,. Cette attitude n'est cependant pas unanime et, dans certaines conditions, le changement "à la demande" et non pas systématique, ne provoque pas plus de complications,.
 </t>
         </is>
       </c>
